--- a/aircraft/reports/sightings-over-time-daily.xlsx
+++ b/aircraft/reports/sightings-over-time-daily.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B966"/>
+  <dimension ref="A1:B968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8172,6 +8172,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B967" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8183,7 +8199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B966"/>
+  <dimension ref="A1:B968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15911,6 +15927,22 @@
         <v>48.42857142857143</v>
       </c>
     </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B967" t="n">
+        <v>44.85714285714285</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B968" t="n">
+        <v>44.85714285714285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
